--- a/stocks/stockData.xlsx
+++ b/stocks/stockData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timmy\OneDrive\Documents\Sounds of Wall Street\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941128E9-53F1-48BA-9E6E-657506B5B261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB0BEE7-BCEC-4868-9CE0-3B343423F73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{72031F84-18DF-466F-9879-5DD046927295}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7310" xr2:uid="{72031F84-18DF-466F-9879-5DD046927295}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2115">
+  <futureMetadata name="XLRICHVALUE" count="2123">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -14853,6 +14853,62 @@
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2114"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2115"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2116"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2117"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2118"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2119"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2120"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2121"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2122"/>
         </ext>
       </extLst>
     </bk>
@@ -14862,7 +14918,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2115">
+  <valueMetadata count="2123">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -21207,6 +21263,30 @@
     </bk>
     <bk>
       <rc t="2" v="2114"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2115"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2116"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2117"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2118"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2119"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2120"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2121"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2122"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -21312,259 +21392,260 @@
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
 <arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="10">
-  <a r="1" c="250">
+  <a r="1" c="251">
+    <v t="i">0</v>
+    <v t="i">1</v>
     <v t="i">2</v>
     <v t="i">3</v>
     <v t="i">4</v>
-    <v t="i">5</v>
-    <v t="i">6</v>
+    <v t="i">7</v>
+    <v t="i">8</v>
     <v t="i">9</v>
     <v t="i">10</v>
     <v t="i">11</v>
-    <v t="i">12</v>
-    <v t="i">13</v>
+    <v t="i">14</v>
+    <v t="i">15</v>
     <v t="i">16</v>
     <v t="i">17</v>
     <v t="i">18</v>
-    <v t="i">19</v>
-    <v t="i">20</v>
+    <v t="i">21</v>
+    <v t="i">22</v>
     <v t="i">23</v>
     <v t="i">24</v>
     <v t="i">25</v>
-    <v t="i">26</v>
-    <v t="i">27</v>
+    <v t="i">29</v>
+    <v t="i">30</v>
     <v t="i">31</v>
     <v t="i">32</v>
-    <v t="i">33</v>
-    <v t="i">34</v>
+    <v t="i">35</v>
+    <v t="i">36</v>
     <v t="i">37</v>
     <v t="i">38</v>
     <v t="i">39</v>
-    <v t="i">40</v>
-    <v t="i">41</v>
+    <v t="i">42</v>
+    <v t="i">43</v>
     <v t="i">44</v>
     <v t="i">45</v>
     <v t="i">46</v>
-    <v t="i">47</v>
-    <v t="i">48</v>
+    <v t="i">50</v>
+    <v t="i">51</v>
     <v t="i">52</v>
     <v t="i">53</v>
-    <v t="i">54</v>
-    <v t="i">55</v>
+    <v t="i">56</v>
+    <v t="i">57</v>
     <v t="i">58</v>
     <v t="i">59</v>
     <v t="i">60</v>
-    <v t="i">61</v>
-    <v t="i">62</v>
+    <v t="i">64</v>
+    <v t="i">65</v>
     <v t="i">66</v>
     <v t="i">67</v>
-    <v t="i">68</v>
-    <v t="i">69</v>
+    <v t="i">70</v>
+    <v t="i">71</v>
     <v t="i">72</v>
     <v t="i">73</v>
     <v t="i">74</v>
-    <v t="i">75</v>
-    <v t="i">76</v>
+    <v t="i">77</v>
+    <v t="i">78</v>
     <v t="i">79</v>
     <v t="i">80</v>
     <v t="i">81</v>
-    <v t="i">82</v>
-    <v t="i">83</v>
+    <v t="i">84</v>
+    <v t="i">85</v>
     <v t="i">86</v>
     <v t="i">87</v>
     <v t="i">88</v>
-    <v t="i">89</v>
-    <v t="i">90</v>
+    <v t="i">91</v>
+    <v t="i">92</v>
     <v t="i">93</v>
     <v t="i">94</v>
     <v t="i">95</v>
-    <v t="i">96</v>
-    <v t="i">97</v>
+    <v t="i">98</v>
+    <v t="i">99</v>
     <v t="i">100</v>
     <v t="i">101</v>
     <v t="i">102</v>
-    <v t="i">103</v>
-    <v t="i">104</v>
+    <v t="i">105</v>
+    <v t="i">106</v>
     <v t="i">107</v>
     <v t="i">108</v>
     <v t="i">109</v>
-    <v t="i">110</v>
-    <v t="i">111</v>
+    <v t="i">112</v>
+    <v t="i">113</v>
     <v t="i">114</v>
     <v t="i">115</v>
     <v t="i">116</v>
-    <v t="i">117</v>
-    <v t="i">118</v>
+    <v t="i">119</v>
+    <v t="i">120</v>
     <v t="i">121</v>
     <v t="i">122</v>
     <v t="i">123</v>
-    <v t="i">124</v>
-    <v t="i">125</v>
+    <v t="i">127</v>
+    <v t="i">128</v>
     <v t="i">129</v>
     <v t="i">130</v>
-    <v t="i">131</v>
-    <v t="i">132</v>
+    <v t="i">133</v>
+    <v t="i">134</v>
     <v t="i">135</v>
     <v t="i">136</v>
     <v t="i">137</v>
-    <v t="i">138</v>
-    <v t="i">139</v>
+    <v t="i">140</v>
+    <v t="i">141</v>
     <v t="i">142</v>
     <v t="i">143</v>
     <v t="i">144</v>
-    <v t="i">145</v>
-    <v t="i">146</v>
+    <v t="i">147</v>
+    <v t="i">148</v>
     <v t="i">149</v>
     <v t="i">150</v>
     <v t="i">151</v>
-    <v t="i">152</v>
-    <v t="i">153</v>
+    <v t="i">154</v>
+    <v t="i">155</v>
     <v t="i">156</v>
     <v t="i">157</v>
     <v t="i">158</v>
-    <v t="i">159</v>
-    <v t="i">160</v>
+    <v t="i">161</v>
+    <v t="i">162</v>
     <v t="i">163</v>
     <v t="i">164</v>
     <v t="i">165</v>
-    <v t="i">166</v>
-    <v t="i">167</v>
+    <v t="i">168</v>
+    <v t="i">169</v>
     <v t="i">170</v>
     <v t="i">171</v>
     <v t="i">172</v>
-    <v t="i">173</v>
-    <v t="i">174</v>
+    <v t="i">175</v>
+    <v t="i">176</v>
     <v t="i">177</v>
     <v t="i">178</v>
     <v t="i">179</v>
-    <v t="i">180</v>
-    <v t="i">181</v>
+    <v t="i">182</v>
+    <v t="i">183</v>
     <v t="i">184</v>
     <v t="i">185</v>
     <v t="i">186</v>
-    <v t="i">187</v>
-    <v t="i">188</v>
+    <v t="i">189</v>
+    <v t="i">190</v>
     <v t="i">191</v>
     <v t="i">192</v>
     <v t="i">193</v>
-    <v t="i">194</v>
-    <v t="i">195</v>
+    <v t="i">196</v>
+    <v t="i">197</v>
     <v t="i">198</v>
     <v t="i">199</v>
     <v t="i">200</v>
-    <v t="i">201</v>
-    <v t="i">202</v>
+    <v t="i">203</v>
+    <v t="i">204</v>
     <v t="i">205</v>
-    <v t="i">206</v>
     <v t="i">207</v>
-    <v t="i">209</v>
+    <v t="i">210</v>
+    <v t="i">211</v>
     <v t="i">212</v>
     <v t="i">213</v>
     <v t="i">214</v>
-    <v t="i">215</v>
-    <v t="i">216</v>
+    <v t="i">217</v>
+    <v t="i">218</v>
     <v t="i">219</v>
     <v t="i">220</v>
     <v t="i">221</v>
-    <v t="i">222</v>
-    <v t="i">223</v>
+    <v t="i">224</v>
+    <v t="i">225</v>
     <v t="i">226</v>
     <v t="i">227</v>
     <v t="i">228</v>
-    <v t="i">229</v>
-    <v t="i">230</v>
+    <v t="i">231</v>
+    <v t="i">232</v>
     <v t="i">233</v>
     <v t="i">234</v>
     <v t="i">235</v>
-    <v t="i">236</v>
-    <v t="i">237</v>
+    <v t="i">239</v>
+    <v t="i">240</v>
     <v t="i">241</v>
     <v t="i">242</v>
-    <v t="i">243</v>
-    <v t="i">244</v>
+    <v t="i">246</v>
+    <v t="i">247</v>
     <v t="i">248</v>
     <v t="i">249</v>
-    <v t="i">250</v>
-    <v t="i">251</v>
+    <v t="i">252</v>
+    <v t="i">253</v>
     <v t="i">254</v>
     <v t="i">255</v>
     <v t="i">256</v>
-    <v t="i">257</v>
-    <v t="i">258</v>
+    <v t="i">260</v>
+    <v t="i">261</v>
     <v t="i">262</v>
     <v t="i">263</v>
-    <v t="i">264</v>
-    <v t="i">265</v>
+    <v t="i">266</v>
+    <v t="i">267</v>
     <v t="i">268</v>
     <v t="i">269</v>
     <v t="i">270</v>
-    <v t="i">271</v>
-    <v t="i">272</v>
+    <v t="i">273</v>
+    <v t="i">274</v>
     <v t="i">275</v>
     <v t="i">276</v>
     <v t="i">277</v>
-    <v t="i">278</v>
-    <v t="i">279</v>
+    <v t="i">280</v>
+    <v t="i">281</v>
     <v t="i">282</v>
     <v t="i">283</v>
     <v t="i">284</v>
-    <v t="i">285</v>
-    <v t="i">286</v>
+    <v t="i">287</v>
+    <v t="i">288</v>
     <v t="i">289</v>
     <v t="i">290</v>
     <v t="i">291</v>
-    <v t="i">292</v>
-    <v t="i">293</v>
+    <v t="i">295</v>
+    <v t="i">296</v>
     <v t="i">297</v>
     <v t="i">298</v>
-    <v t="i">299</v>
-    <v t="i">300</v>
+    <v t="i">301</v>
+    <v t="i">302</v>
     <v t="i">303</v>
     <v t="i">304</v>
     <v t="i">305</v>
-    <v t="i">306</v>
-    <v t="i">307</v>
+    <v t="i">308</v>
+    <v t="i">309</v>
     <v t="i">310</v>
     <v t="i">311</v>
     <v t="i">312</v>
-    <v t="i">313</v>
-    <v t="i">314</v>
+    <v t="i">315</v>
+    <v t="i">316</v>
     <v t="i">317</v>
     <v t="i">318</v>
     <v t="i">319</v>
-    <v t="i">320</v>
-    <v t="i">321</v>
+    <v t="i">322</v>
+    <v t="i">323</v>
     <v t="i">324</v>
     <v t="i">325</v>
     <v t="i">326</v>
-    <v t="i">327</v>
-    <v t="i">328</v>
+    <v t="i">329</v>
+    <v t="i">330</v>
     <v t="i">331</v>
     <v t="i">332</v>
     <v t="i">333</v>
-    <v t="i">334</v>
-    <v t="i">335</v>
+    <v t="i">336</v>
+    <v t="i">337</v>
     <v t="i">338</v>
     <v t="i">339</v>
-    <v t="i">340</v>
-    <v t="i">341</v>
+    <v t="i">343</v>
+    <v t="i">344</v>
     <v t="i">345</v>
     <v t="i">346</v>
     <v t="i">347</v>
-    <v t="i">348</v>
-    <v t="i">349</v>
+    <v t="i">350</v>
+    <v t="i">351</v>
     <v t="i">352</v>
     <v t="i">353</v>
     <v t="i">354</v>
-    <v t="i">355</v>
-    <v t="i">356</v>
+    <v t="i">357</v>
+    <v t="i">358</v>
     <v t="i">359</v>
     <v t="i">360</v>
     <v t="i">361</v>
-    <v t="i">362</v>
-    <v t="i">363</v>
+    <v t="i">364</v>
   </a>
-  <a r="1" c="250">
+  <a r="1" c="251">
     <v>30.912500000000001</v>
     <v>29.62</v>
     <v>29.802499999999998</v>
@@ -21815,8 +21896,768 @@
     <v>18.98</v>
     <v>18.75</v>
     <v>18.920000000000002</v>
+    <v>19.16</v>
   </a>
-  <a r="1" c="250">
+  <a r="1" c="251">
+    <v>286.9205</v>
+    <v>301.05700000000002</v>
+    <v>301.31029999999998</v>
+    <v>313.06689999999998</v>
+    <v>295.66370000000001</v>
+    <v>278.81389999999999</v>
+    <v>273.10059999999999</v>
+    <v>264.99740000000003</v>
+    <v>233.6643</v>
+    <v>257.82409999999999</v>
+    <v>255.7174</v>
+    <v>249.11750000000001</v>
+    <v>248.17089999999999</v>
+    <v>235.6643</v>
+    <v>237.99430000000001</v>
+    <v>218.33779999999999</v>
+    <v>217.84119999999999</v>
+    <v>207.9479</v>
+    <v>220.47110000000001</v>
+    <v>241.08090000000001</v>
+    <v>257.94409999999999</v>
+    <v>251.7175</v>
+    <v>244.1542</v>
+    <v>243.2226</v>
+    <v>244.3509</v>
+    <v>233.99770000000001</v>
+    <v>240.08430000000001</v>
+    <v>249.33750000000001</v>
+    <v>235.15430000000001</v>
+    <v>223.1644</v>
+    <v>218.28450000000001</v>
+    <v>220.9145</v>
+    <v>222.73439999999999</v>
+    <v>213.43119999999999</v>
+    <v>224.6011</v>
+    <v>234.501</v>
+    <v>237.90260000000001</v>
+    <v>237.46600000000001</v>
+    <v>249.36420000000001</v>
+    <v>244.48089999999999</v>
+    <v>230.49770000000001</v>
+    <v>224.5078</v>
+    <v>226.99770000000001</v>
+    <v>222.99780000000001</v>
+    <v>230.77770000000001</v>
+    <v>233.9177</v>
+    <v>242.33090000000001</v>
+    <v>252.10079999999999</v>
+    <v>236.8443</v>
+    <v>225.49770000000001</v>
+    <v>234.89429999999999</v>
+    <v>239.99760000000001</v>
+    <v>244.9342</v>
+    <v>244.99760000000001</v>
+    <v>246.7809</v>
+    <v>255.10409999999999</v>
+    <v>276.21719999999999</v>
+    <v>272.21390000000002</v>
+    <v>266.51069999999999</v>
+    <v>263.80739999999997</v>
+    <v>280.06389999999999</v>
+    <v>280.69720000000001</v>
+    <v>301.27199999999999</v>
+    <v>294.00040000000001</v>
+    <v>304.99700000000001</v>
+    <v>310.99689999999998</v>
+    <v>302.66699999999997</v>
+    <v>294.99709999999999</v>
+    <v>290.29039999999998</v>
+    <v>297.06369999999998</v>
+    <v>296.5104</v>
+    <v>289.41210000000001</v>
+    <v>301.78359999999998</v>
+    <v>311.66359999999997</v>
+    <v>303.39359999999999</v>
+    <v>305.99689999999998</v>
+    <v>298.99700000000001</v>
+    <v>291.91039999999998</v>
+    <v>291.4504</v>
+    <v>297.56040000000002</v>
+    <v>302.36</v>
+    <v>297.43</v>
+    <v>282.83</v>
+    <v>287.86500000000001</v>
+    <v>280.62</v>
+    <v>272.57499999999999</v>
+    <v>281.065</v>
+    <v>272.67500000000001</v>
+    <v>273.10000000000002</v>
+    <v>281.3</v>
+    <v>291.67</v>
+    <v>300.72000000000003</v>
+    <v>292.89999999999998</v>
+    <v>292.24</v>
+    <v>301.82499999999999</v>
+    <v>299.60500000000002</v>
+    <v>300.08999999999997</v>
+    <v>306.91000000000003</v>
+    <v>308.29000000000002</v>
+    <v>299.86</v>
+    <v>283.08999999999997</v>
+    <v>271.83</v>
+    <v>283.83999999999997</v>
+    <v>283.08</v>
+    <v>282.76</v>
+    <v>266.14499999999998</v>
+    <v>254.5</v>
+    <v>250.52</v>
+    <v>245.01</v>
+    <v>239.44</v>
+    <v>233.935</v>
+    <v>223.93</v>
+    <v>220.94499999999999</v>
+    <v>215.33</v>
+    <v>208.3</v>
+    <v>224.01</v>
+    <v>210.04</v>
+    <v>229.5</v>
+    <v>219.8</v>
+    <v>208.28</v>
+    <v>206.41499999999999</v>
+    <v>205.82</v>
+    <v>210.1</v>
+    <v>219.4</v>
+    <v>229.77</v>
+    <v>225.4</v>
+    <v>226.19</v>
+    <v>234.05</v>
+    <v>226.04</v>
+    <v>211.36</v>
+    <v>222.6</v>
+    <v>208.65</v>
+    <v>194.02</v>
+    <v>190.77500000000001</v>
+    <v>189.9</v>
+    <v>186</v>
+    <v>192.77</v>
+    <v>195.88</v>
+    <v>191.51</v>
+    <v>183.96</v>
+    <v>185.05</v>
+    <v>175.85</v>
+    <v>168.63</v>
+    <v>173.57</v>
+    <v>185.06</v>
+    <v>179.96</v>
+    <v>184.99</v>
+    <v>182.43</v>
+    <v>197.08</v>
+    <v>191.78</v>
+    <v>189.44</v>
+    <v>181.215</v>
+    <v>175.03</v>
+    <v>172.2</v>
+    <v>173.84</v>
+    <v>176.1</v>
+    <v>174.87</v>
+    <v>159.25</v>
+    <v>153.44</v>
+    <v>159.63499999999999</v>
+    <v>154</v>
+    <v>146.05000000000001</v>
+    <v>139.33500000000001</v>
+    <v>136</v>
+    <v>126.37</v>
+    <v>117.495</v>
+    <v>110.35</v>
+    <v>120.38500000000001</v>
+    <v>119.95</v>
+    <v>118.47</v>
+    <v>109.11</v>
+    <v>110.51</v>
+    <v>103</v>
+    <v>118.96</v>
+    <v>121.07</v>
+    <v>122.09</v>
+    <v>122.56</v>
+    <v>116.55</v>
+    <v>125.69499999999999</v>
+    <v>136.55500000000001</v>
+    <v>127.26</v>
+    <v>128.68</v>
+    <v>135.87</v>
+    <v>143</v>
+    <v>141.905</v>
+    <v>159.965</v>
+    <v>162.43</v>
+    <v>178.05</v>
+    <v>164.57</v>
+    <v>173.89</v>
+    <v>187.32499999999999</v>
+    <v>183.95</v>
+    <v>193.01</v>
+    <v>196.43</v>
+    <v>196.1</v>
+    <v>207.77500000000001</v>
+    <v>202.22499999999999</v>
+    <v>194.41499999999999</v>
+    <v>191.94</v>
+    <v>211.755</v>
+    <v>210.78</v>
+    <v>199.98500000000001</v>
+    <v>204.99</v>
+    <v>197.93</v>
+    <v>203.91</v>
+    <v>196.32499999999999</v>
+    <v>202.03</v>
+    <v>210.59</v>
+    <v>206.21</v>
+    <v>186.74</v>
+    <v>194.79499999999999</v>
+    <v>198.54</v>
+    <v>191.38</v>
+    <v>185.04</v>
+    <v>180.25</v>
+    <v>175.13</v>
+    <v>167.45500000000001</v>
+    <v>177.31</v>
+    <v>180.8</v>
+    <v>180.36500000000001</v>
+    <v>184.51499999999999</v>
+    <v>178.08</v>
+    <v>188.28</v>
+    <v>199.3</v>
+    <v>195.26</v>
+    <v>191.65</v>
+    <v>194.41499999999999</v>
+    <v>192</v>
+    <v>193.13</v>
+    <v>195.58</v>
+    <v>197.53</v>
+    <v>199.91</v>
+    <v>197.32</v>
+    <v>190.51499999999999</v>
+    <v>183.08</v>
+    <v>179.94</v>
+    <v>186.69</v>
+    <v>190.74</v>
+    <v>182.95500000000001</v>
+    <v>183.95</v>
+    <v>186.32</v>
+    <v>187.15</v>
+    <v>179.1</v>
+    <v>166.16499999999999</v>
+    <v>164.8</v>
+    <v>164.65</v>
+    <v>159.82</v>
+    <v>160.29</v>
+    <v>152.63999999999999</v>
+    <v>160.9</v>
+    <v>163.16999999999999</v>
+  </a>
+  <a r="1" c="251">
+    <v>113.405</v>
+    <v>116.43049999999999</v>
+    <v>117.03149999999999</v>
+    <v>120.20399999999999</v>
+    <v>115.1845</v>
+    <v>113.25</v>
+    <v>115.50749999999999</v>
+    <v>113.23650000000001</v>
+    <v>111.3775</v>
+    <v>114.533</v>
+    <v>114.9555</v>
+    <v>116.84050000000001</v>
+    <v>115</v>
+    <v>111.4315</v>
+    <v>111.95099999999999</v>
+    <v>109.58750000000001</v>
+    <v>105.77200000000001</v>
+    <v>104.9855</v>
+    <v>105.67700000000001</v>
+    <v>109.483</v>
+    <v>112.7465</v>
+    <v>114.855</v>
+    <v>114</v>
+    <v>116.0625</v>
+    <v>116.7045</v>
+    <v>115.48050000000001</v>
+    <v>116.7615</v>
+    <v>116.3275</v>
+    <v>112.44499999999999</v>
+    <v>106.7865</v>
+    <v>106.535</v>
+    <v>108.545</v>
+    <v>107.221</v>
+    <v>106.0335</v>
+    <v>108.9295</v>
+    <v>110.5565</v>
+    <v>112.2315</v>
+    <v>112.995</v>
+    <v>118.273</v>
+    <v>115.80249999999999</v>
+    <v>111.55200000000001</v>
+    <v>110</v>
+    <v>107.93300000000001</v>
+    <v>107.1005</v>
+    <v>113.30200000000001</v>
+    <v>115.08</v>
+    <v>117.25</v>
+    <v>117.998</v>
+    <v>116.215</v>
+    <v>111.70099999999999</v>
+    <v>110.2105</v>
+    <v>112.0005</v>
+    <v>112.64</v>
+    <v>110.85</v>
+    <v>113.17</v>
+    <v>114.28</v>
+    <v>111</v>
+    <v>108.41</v>
+    <v>106.6</v>
+    <v>109.26</v>
+    <v>112.37</v>
+    <v>113.08</v>
+    <v>115.3</v>
+    <v>114</v>
+    <v>115.71</v>
+    <v>117.48</v>
+    <v>116.23</v>
+    <v>118.39</v>
+    <v>117.13500000000001</v>
+    <v>118.78</v>
+    <v>121.28</v>
+    <v>120.26</v>
+    <v>121.13</v>
+    <v>121.52</v>
+    <v>120.12</v>
+    <v>119.43</v>
+    <v>119.06</v>
+    <v>115.2</v>
+    <v>113.47499999999999</v>
+    <v>113.5</v>
+    <v>114.235</v>
+    <v>114.72</v>
+    <v>109.99</v>
+    <v>110.17</v>
+    <v>110.65</v>
+    <v>108.28</v>
+    <v>110.59</v>
+    <v>107.3</v>
+    <v>107.06</v>
+    <v>108.04</v>
+    <v>109.065</v>
+    <v>110.99</v>
+    <v>107.8</v>
+    <v>104.57</v>
+    <v>104.03</v>
+    <v>102.07</v>
+    <v>101.75</v>
+    <v>102.08</v>
+    <v>101.67</v>
+    <v>98.82</v>
+    <v>99.63</v>
+    <v>98.1</v>
+    <v>99.43</v>
+    <v>97.65</v>
+    <v>98.64</v>
+    <v>97.05</v>
+    <v>96.76</v>
+    <v>100.44</v>
+    <v>99.825000000000003</v>
+    <v>100.68</v>
+    <v>99.85</v>
+    <v>99</v>
+    <v>97.43</v>
+    <v>97.3</v>
+    <v>95.15</v>
+    <v>99.99</v>
+    <v>98.86</v>
+    <v>103.13</v>
+    <v>100.01</v>
+    <v>100</v>
+    <v>97.844999999999999</v>
+    <v>101.8</v>
+    <v>102.9</v>
+    <v>96.43</v>
+    <v>94.52</v>
+    <v>92.27</v>
+    <v>95.42</v>
+    <v>95.45</v>
+    <v>90.94</v>
+    <v>86.32</v>
+    <v>85.4</v>
+    <v>87.28</v>
+    <v>88.9</v>
+    <v>88.45</v>
+    <v>92.25</v>
+    <v>94.69</v>
+    <v>95.09</v>
+    <v>98.26</v>
+    <v>97.9</v>
+    <v>96.97</v>
+    <v>98.77</v>
+    <v>97.29</v>
+    <v>95.95</v>
+    <v>97.09</v>
+    <v>98.24</v>
+    <v>97.036299999999997</v>
+    <v>95.73</v>
+    <v>94.82</v>
+    <v>101.02</v>
+    <v>99.05</v>
+    <v>99.4</v>
+    <v>99.3</v>
+    <v>96.41</v>
+    <v>95.38</v>
+    <v>93.77</v>
+    <v>92.71</v>
+    <v>97.76</v>
+    <v>95.2</v>
+    <v>93.13</v>
+    <v>90.76</v>
+    <v>90.254999999999995</v>
+    <v>88.11</v>
+    <v>89.08</v>
+    <v>88.16</v>
+    <v>87.11</v>
+    <v>88.795000000000002</v>
+    <v>86.98</v>
+    <v>86.62</v>
+    <v>86.98</v>
+    <v>89.584999999999994</v>
+    <v>90.35</v>
+    <v>87.47</v>
+    <v>86.79</v>
+    <v>88.36</v>
+    <v>85.98</v>
+    <v>89.18</v>
+    <v>91.48</v>
+    <v>90.85</v>
+    <v>92.06</v>
+    <v>92.14</v>
+    <v>90.72</v>
+    <v>95.1</v>
+    <v>97.95</v>
+    <v>98.1</v>
+    <v>95.57</v>
+    <v>96.5</v>
+    <v>97.31</v>
+    <v>97.48</v>
+    <v>96.87</v>
+    <v>98.71</v>
+    <v>105.8</v>
+    <v>102.93</v>
+    <v>102.4</v>
+    <v>103.22</v>
+    <v>102.05</v>
+    <v>100</v>
+    <v>95.45</v>
+    <v>94.74</v>
+    <v>94.43</v>
+    <v>94.49</v>
+    <v>95.37</v>
+    <v>94.85</v>
+    <v>93</v>
+    <v>91.7</v>
+    <v>91.92</v>
+    <v>89.44</v>
+    <v>89.87</v>
+    <v>89.33</v>
+    <v>89.98</v>
+    <v>89.66</v>
+    <v>92.48</v>
+    <v>94.015000000000001</v>
+    <v>94.98</v>
+    <v>94.12</v>
+    <v>94.05</v>
+    <v>92.17</v>
+    <v>90.09</v>
+    <v>92.56</v>
+    <v>93.22</v>
+    <v>96.2</v>
+    <v>100.26</v>
+    <v>100.12</v>
+    <v>101.25</v>
+    <v>104.27</v>
+    <v>105.06</v>
+    <v>104.99</v>
+    <v>104.61499999999999</v>
+    <v>102.44</v>
+    <v>102.28</v>
+    <v>100.91</v>
+    <v>101.3</v>
+    <v>102.39</v>
+    <v>104.33</v>
+    <v>105.78</v>
+    <v>105.26</v>
+    <v>106.98</v>
+    <v>106.55</v>
+    <v>106.58</v>
+    <v>105.84</v>
+    <v>106.89</v>
+    <v>104.658</v>
+    <v>106.49</v>
+    <v>103.58</v>
+    <v>103.91</v>
+    <v>105.47</v>
+    <v>105.49</v>
+    <v>105.825</v>
+    <v>104.92</v>
+    <v>104.45</v>
+    <v>107.04</v>
+    <v>106.84</v>
+  </a>
+  <a r="1" c="251">
+    <v>15.1</v>
+    <v>15.16</v>
+    <v>15.22</v>
+    <v>15.68</v>
+    <v>14.654999999999999</v>
+    <v>13.63</v>
+    <v>13.15</v>
+    <v>11.56</v>
+    <v>10.045</v>
+    <v>12.11</v>
+    <v>11.9</v>
+    <v>12.06</v>
+    <v>12.73</v>
+    <v>12.77</v>
+    <v>13.18</v>
+    <v>12.01</v>
+    <v>11.33</v>
+    <v>10.48</v>
+    <v>11.75</v>
+    <v>12.65</v>
+    <v>15.75</v>
+    <v>14.01</v>
+    <v>12.69</v>
+    <v>12.78</v>
+    <v>12.42</v>
+    <v>12.02</v>
+    <v>12.8</v>
+    <v>13.37</v>
+    <v>12.63</v>
+    <v>11.91</v>
+    <v>11.52</v>
+    <v>11.55</v>
+    <v>12.22</v>
+    <v>11.86</v>
+    <v>12.75</v>
+    <v>12.5</v>
+    <v>12.79</v>
+    <v>12.17</v>
+    <v>12.58</v>
+    <v>14</v>
+    <v>13.07</v>
+    <v>13.4</v>
+    <v>13.48</v>
+    <v>13.55</v>
+    <v>12.68</v>
+    <v>12.54</v>
+    <v>13.89</v>
+    <v>14.49</v>
+    <v>14.95</v>
+    <v>15.05</v>
+    <v>14.95</v>
+    <v>15.27</v>
+    <v>15.6</v>
+    <v>17.41</v>
+    <v>16.52</v>
+    <v>17.899999999999999</v>
+    <v>16.7</v>
+    <v>15.55</v>
+    <v>14.66</v>
+    <v>14.23</v>
+    <v>14.63</v>
+    <v>14.31</v>
+    <v>14.33</v>
+    <v>15.45</v>
+    <v>17.2</v>
+    <v>18.98</v>
+    <v>16.97</v>
+    <v>24.06</v>
+    <v>23.2</v>
+    <v>23.39</v>
+    <v>24.07</v>
+    <v>26.94</v>
+    <v>24.07</v>
+    <v>24.01</v>
+    <v>24.59</v>
+    <v>21.86</v>
+    <v>18.04</v>
+    <v>11.33</v>
+    <v>10.72</v>
+    <v>9.59</v>
+    <v>9.7799999999999994</v>
+    <v>9.58</v>
+    <v>9.0399999999999991</v>
+    <v>9.59</v>
+    <v>9.11</v>
+    <v>9.0299999999999994</v>
+    <v>8.7799999999999994</v>
+    <v>8.65</v>
+    <v>8.07</v>
+    <v>8.3000000000000007</v>
+    <v>8.86</v>
+    <v>10.01</v>
+    <v>9.6300000000000008</v>
+    <v>9.52</v>
+    <v>9.75</v>
+    <v>9.6199999999999992</v>
+    <v>9.07</v>
+    <v>9.23</v>
+    <v>8.73</v>
+    <v>8.6199999999999992</v>
+    <v>7.72</v>
+    <v>7.65</v>
+    <v>7.16</v>
+    <v>7.3</v>
+    <v>7.46</v>
+    <v>6.97</v>
+    <v>6.84</v>
+    <v>6.98</v>
+    <v>7.55</v>
+    <v>7.38</v>
+    <v>7.1</v>
+    <v>6.46</v>
+    <v>6.4</v>
+    <v>6.12</v>
+    <v>5.63</v>
+    <v>6.21</v>
+    <v>6.18</v>
+    <v>6.6</v>
+    <v>6.41</v>
+    <v>6.2</v>
+    <v>6.35</v>
+    <v>6.46</v>
+    <v>6.3</v>
+    <v>6.54</v>
+    <v>6.83</v>
+    <v>6.55</v>
+    <v>6.82</v>
+    <v>6.76</v>
+    <v>6.26</v>
+    <v>5.75</v>
+    <v>5.83</v>
+    <v>5.56</v>
+    <v>5.38</v>
+    <v>5.37</v>
+    <v>5.5</v>
+    <v>6.01</v>
+    <v>8.02</v>
+    <v>7.83</v>
+    <v>7.74</v>
+    <v>7.29</v>
+    <v>7.53</v>
+    <v>7.3</v>
+    <v>7.21</v>
+    <v>7.35</v>
+    <v>7.66</v>
+    <v>7.44</v>
+    <v>7.29</v>
+    <v>7.48</v>
+    <v>7.29</v>
+    <v>8.18</v>
+    <v>8.18</v>
+    <v>7.46</v>
+    <v>6.77</v>
+    <v>6.24</v>
+    <v>6.05</v>
+    <v>5.99</v>
+    <v>6.5</v>
+    <v>5.77</v>
+    <v>5.6</v>
+    <v>5.65</v>
+    <v>5.23</v>
+    <v>4.87</v>
+    <v>5.14</v>
+    <v>4.1399999999999997</v>
+    <v>4.7</v>
+    <v>4.2</v>
+    <v>4.01</v>
+    <v>3.9</v>
+    <v>4.04</v>
+    <v>4.1399999999999997</v>
+    <v>4</v>
+    <v>4.03</v>
+    <v>3.98</v>
+    <v>3.92</v>
+    <v>3.91</v>
+    <v>4.43</v>
+    <v>5.09</v>
+    <v>4.84</v>
+    <v>5.37</v>
+    <v>6.37</v>
+    <v>5.47</v>
+    <v>5.53</v>
+    <v>5.53</v>
+    <v>5.95</v>
+    <v>5.43</v>
+    <v>5.5</v>
+    <v>5.25</v>
+    <v>5.28</v>
+    <v>5.0999999999999996</v>
+    <v>5.3</v>
+    <v>6.28</v>
+    <v>6.0949999999999998</v>
+    <v>6.31</v>
+    <v>6.94</v>
+    <v>6.12</v>
+    <v>5.87</v>
+    <v>5.21</v>
+    <v>4.75</v>
+    <v>4.55</v>
+    <v>4.5599999999999996</v>
+    <v>5.24</v>
+    <v>5.32</v>
+    <v>5.47</v>
+    <v>6.42</v>
+    <v>6.29</v>
+    <v>6.13</v>
+    <v>6.31</v>
+    <v>7.78</v>
+    <v>6.8</v>
+    <v>6.24</v>
+    <v>6.2</v>
+    <v>6.5750000000000002</v>
+    <v>6.23</v>
+    <v>6.04</v>
+    <v>5.74</v>
+    <v>5.56</v>
+    <v>5.44</v>
+    <v>5.48</v>
+    <v>4.53</v>
+    <v>4.22</v>
+    <v>4.3</v>
+    <v>4.25</v>
+    <v>4.33</v>
+    <v>4.7300000000000004</v>
+    <v>4.4400000000000004</v>
+    <v>4.4000000000000004</v>
+    <v>4.51</v>
+    <v>4.51</v>
+    <v>5.14</v>
+    <v>5.1100000000000003</v>
+    <v>4.91</v>
+    <v>4.99</v>
+    <v>4.08</v>
+    <v>4.07</v>
+    <v>4.4500999999999999</v>
+    <v>4.7699999999999996</v>
+    <v>5.45</v>
+    <v>5.62</v>
+    <v>5.48</v>
+    <v>5.74</v>
+    <v>5.24</v>
+    <v>5.23</v>
+    <v>4.95</v>
+    <v>5</v>
+    <v>4.9400000000000004</v>
+    <v>4.9000000000000004</v>
+    <v>4.9400000000000004</v>
+    <v>5.18</v>
+    <v>5.22</v>
+    <v>5.46</v>
+    <v>5.53</v>
+  </a>
+  <a r="1" c="251">
     <v>156.71</v>
     <v>158.15</v>
     <v>159.66999999999999</v>
@@ -22067,260 +22908,9 @@
     <v>163.05500000000001</v>
     <v>165.19</v>
     <v>168.49</v>
+    <v>169.28</v>
   </a>
-  <a r="1" c="250">
-    <v>15.1</v>
-    <v>15.16</v>
-    <v>15.22</v>
-    <v>15.68</v>
-    <v>14.654999999999999</v>
-    <v>13.63</v>
-    <v>13.15</v>
-    <v>11.56</v>
-    <v>10.045</v>
-    <v>12.11</v>
-    <v>11.9</v>
-    <v>12.06</v>
-    <v>12.73</v>
-    <v>12.77</v>
-    <v>13.18</v>
-    <v>12.01</v>
-    <v>11.33</v>
-    <v>10.48</v>
-    <v>11.75</v>
-    <v>12.65</v>
-    <v>15.75</v>
-    <v>14.01</v>
-    <v>12.69</v>
-    <v>12.78</v>
-    <v>12.42</v>
-    <v>12.02</v>
-    <v>12.8</v>
-    <v>13.37</v>
-    <v>12.63</v>
-    <v>11.91</v>
-    <v>11.52</v>
-    <v>11.55</v>
-    <v>12.22</v>
-    <v>11.86</v>
-    <v>12.75</v>
-    <v>12.5</v>
-    <v>12.79</v>
-    <v>12.17</v>
-    <v>12.58</v>
-    <v>14</v>
-    <v>13.07</v>
-    <v>13.4</v>
-    <v>13.48</v>
-    <v>13.55</v>
-    <v>12.68</v>
-    <v>12.54</v>
-    <v>13.89</v>
-    <v>14.49</v>
-    <v>14.95</v>
-    <v>15.05</v>
-    <v>14.95</v>
-    <v>15.27</v>
-    <v>15.6</v>
-    <v>17.41</v>
-    <v>16.52</v>
-    <v>17.899999999999999</v>
-    <v>16.7</v>
-    <v>15.55</v>
-    <v>14.66</v>
-    <v>14.23</v>
-    <v>14.63</v>
-    <v>14.31</v>
-    <v>14.33</v>
-    <v>15.45</v>
-    <v>17.2</v>
-    <v>18.98</v>
-    <v>16.97</v>
-    <v>24.06</v>
-    <v>23.2</v>
-    <v>23.39</v>
-    <v>24.07</v>
-    <v>26.94</v>
-    <v>24.07</v>
-    <v>24.01</v>
-    <v>24.59</v>
-    <v>21.86</v>
-    <v>18.04</v>
-    <v>11.33</v>
-    <v>10.72</v>
-    <v>9.59</v>
-    <v>9.7799999999999994</v>
-    <v>9.58</v>
-    <v>9.0399999999999991</v>
-    <v>9.59</v>
-    <v>9.11</v>
-    <v>9.0299999999999994</v>
-    <v>8.7799999999999994</v>
-    <v>8.65</v>
-    <v>8.07</v>
-    <v>8.3000000000000007</v>
-    <v>8.86</v>
-    <v>10.01</v>
-    <v>9.6300000000000008</v>
-    <v>9.52</v>
-    <v>9.75</v>
-    <v>9.6199999999999992</v>
-    <v>9.07</v>
-    <v>9.23</v>
-    <v>8.73</v>
-    <v>8.6199999999999992</v>
-    <v>7.72</v>
-    <v>7.65</v>
-    <v>7.16</v>
-    <v>7.3</v>
-    <v>7.46</v>
-    <v>6.97</v>
-    <v>6.84</v>
-    <v>6.98</v>
-    <v>7.55</v>
-    <v>7.38</v>
-    <v>7.1</v>
-    <v>6.46</v>
-    <v>6.4</v>
-    <v>6.12</v>
-    <v>5.63</v>
-    <v>6.21</v>
-    <v>6.18</v>
-    <v>6.6</v>
-    <v>6.41</v>
-    <v>6.2</v>
-    <v>6.35</v>
-    <v>6.46</v>
-    <v>6.3</v>
-    <v>6.54</v>
-    <v>6.83</v>
-    <v>6.55</v>
-    <v>6.82</v>
-    <v>6.76</v>
-    <v>6.26</v>
-    <v>5.75</v>
-    <v>5.83</v>
-    <v>5.56</v>
-    <v>5.38</v>
-    <v>5.37</v>
-    <v>5.5</v>
-    <v>6.01</v>
-    <v>8.02</v>
-    <v>7.83</v>
-    <v>7.74</v>
-    <v>7.29</v>
-    <v>7.53</v>
-    <v>7.3</v>
-    <v>7.21</v>
-    <v>7.35</v>
-    <v>7.66</v>
-    <v>7.44</v>
-    <v>7.29</v>
-    <v>7.48</v>
-    <v>7.29</v>
-    <v>8.18</v>
-    <v>8.18</v>
-    <v>7.46</v>
-    <v>6.77</v>
-    <v>6.24</v>
-    <v>6.05</v>
-    <v>5.99</v>
-    <v>6.5</v>
-    <v>5.77</v>
-    <v>5.6</v>
-    <v>5.65</v>
-    <v>5.23</v>
-    <v>4.87</v>
-    <v>5.14</v>
-    <v>4.1399999999999997</v>
-    <v>4.7</v>
-    <v>4.2</v>
-    <v>4.01</v>
-    <v>3.9</v>
-    <v>4.04</v>
-    <v>4.1399999999999997</v>
-    <v>4</v>
-    <v>4.03</v>
-    <v>3.98</v>
-    <v>3.92</v>
-    <v>3.91</v>
-    <v>4.43</v>
-    <v>5.09</v>
-    <v>4.84</v>
-    <v>5.37</v>
-    <v>6.37</v>
-    <v>5.47</v>
-    <v>5.53</v>
-    <v>5.53</v>
-    <v>5.95</v>
-    <v>5.43</v>
-    <v>5.5</v>
-    <v>5.25</v>
-    <v>5.28</v>
-    <v>5.0999999999999996</v>
-    <v>5.3</v>
-    <v>6.28</v>
-    <v>6.0949999999999998</v>
-    <v>6.31</v>
-    <v>6.94</v>
-    <v>6.12</v>
-    <v>5.87</v>
-    <v>5.21</v>
-    <v>4.75</v>
-    <v>4.55</v>
-    <v>4.5599999999999996</v>
-    <v>5.24</v>
-    <v>5.32</v>
-    <v>5.47</v>
-    <v>6.42</v>
-    <v>6.29</v>
-    <v>6.13</v>
-    <v>6.31</v>
-    <v>7.78</v>
-    <v>6.8</v>
-    <v>6.24</v>
-    <v>6.2</v>
-    <v>6.5750000000000002</v>
-    <v>6.23</v>
-    <v>6.04</v>
-    <v>5.74</v>
-    <v>5.56</v>
-    <v>5.44</v>
-    <v>5.48</v>
-    <v>4.53</v>
-    <v>4.22</v>
-    <v>4.3</v>
-    <v>4.25</v>
-    <v>4.33</v>
-    <v>4.7300000000000004</v>
-    <v>4.4400000000000004</v>
-    <v>4.4000000000000004</v>
-    <v>4.51</v>
-    <v>4.51</v>
-    <v>5.14</v>
-    <v>5.1100000000000003</v>
-    <v>4.91</v>
-    <v>4.99</v>
-    <v>4.08</v>
-    <v>4.07</v>
-    <v>4.4500999999999999</v>
-    <v>4.7699999999999996</v>
-    <v>5.45</v>
-    <v>5.62</v>
-    <v>5.48</v>
-    <v>5.74</v>
-    <v>5.24</v>
-    <v>5.23</v>
-    <v>4.95</v>
-    <v>5</v>
-    <v>4.9400000000000004</v>
-    <v>4.9000000000000004</v>
-    <v>4.9400000000000004</v>
-    <v>5.18</v>
-    <v>5.22</v>
-    <v>5.46</v>
-  </a>
-  <a r="1" c="250">
+  <a r="1" c="251">
     <v>122.401</v>
     <v>124.0535</v>
     <v>123.6</v>
@@ -22571,8 +23161,9 @@
     <v>105.04</v>
     <v>108.16</v>
     <v>107.73</v>
+    <v>104.95</v>
   </a>
-  <a r="1" c="250">
+  <a r="1" c="251">
     <v>277.70999999999998</v>
     <v>283.95999999999998</v>
     <v>282.58999999999997</v>
@@ -22823,512 +23414,9 @@
     <v>296.7</v>
     <v>295.97000000000003</v>
     <v>304.01</v>
+    <v>306.97000000000003</v>
   </a>
-  <a r="1" c="250">
-    <v>113.405</v>
-    <v>116.43049999999999</v>
-    <v>117.03149999999999</v>
-    <v>120.20399999999999</v>
-    <v>115.1845</v>
-    <v>113.25</v>
-    <v>115.50749999999999</v>
-    <v>113.23650000000001</v>
-    <v>111.3775</v>
-    <v>114.533</v>
-    <v>114.9555</v>
-    <v>116.84050000000001</v>
-    <v>115</v>
-    <v>111.4315</v>
-    <v>111.95099999999999</v>
-    <v>109.58750000000001</v>
-    <v>105.77200000000001</v>
-    <v>104.9855</v>
-    <v>105.67700000000001</v>
-    <v>109.483</v>
-    <v>112.7465</v>
-    <v>114.855</v>
-    <v>114</v>
-    <v>116.0625</v>
-    <v>116.7045</v>
-    <v>115.48050000000001</v>
-    <v>116.7615</v>
-    <v>116.3275</v>
-    <v>112.44499999999999</v>
-    <v>106.7865</v>
-    <v>106.535</v>
-    <v>108.545</v>
-    <v>107.221</v>
-    <v>106.0335</v>
-    <v>108.9295</v>
-    <v>110.5565</v>
-    <v>112.2315</v>
-    <v>112.995</v>
-    <v>118.273</v>
-    <v>115.80249999999999</v>
-    <v>111.55200000000001</v>
-    <v>110</v>
-    <v>107.93300000000001</v>
-    <v>107.1005</v>
-    <v>113.30200000000001</v>
-    <v>115.08</v>
-    <v>117.25</v>
-    <v>117.998</v>
-    <v>116.215</v>
-    <v>111.70099999999999</v>
-    <v>110.2105</v>
-    <v>112.0005</v>
-    <v>112.64</v>
-    <v>110.85</v>
-    <v>113.17</v>
-    <v>114.28</v>
-    <v>111</v>
-    <v>108.41</v>
-    <v>106.6</v>
-    <v>109.26</v>
-    <v>112.37</v>
-    <v>113.08</v>
-    <v>115.3</v>
-    <v>114</v>
-    <v>115.71</v>
-    <v>117.48</v>
-    <v>116.23</v>
-    <v>118.39</v>
-    <v>117.13500000000001</v>
-    <v>118.78</v>
-    <v>121.28</v>
-    <v>120.26</v>
-    <v>121.13</v>
-    <v>121.52</v>
-    <v>120.12</v>
-    <v>119.43</v>
-    <v>119.06</v>
-    <v>115.2</v>
-    <v>113.47499999999999</v>
-    <v>113.5</v>
-    <v>114.235</v>
-    <v>114.72</v>
-    <v>109.99</v>
-    <v>110.17</v>
-    <v>110.65</v>
-    <v>108.28</v>
-    <v>110.59</v>
-    <v>107.3</v>
-    <v>107.06</v>
-    <v>108.04</v>
-    <v>109.065</v>
-    <v>110.99</v>
-    <v>107.8</v>
-    <v>104.57</v>
-    <v>104.03</v>
-    <v>102.07</v>
-    <v>101.75</v>
-    <v>102.08</v>
-    <v>101.67</v>
-    <v>98.82</v>
-    <v>99.63</v>
-    <v>98.1</v>
-    <v>99.43</v>
-    <v>97.65</v>
-    <v>98.64</v>
-    <v>97.05</v>
-    <v>96.76</v>
-    <v>100.44</v>
-    <v>99.825000000000003</v>
-    <v>100.68</v>
-    <v>99.85</v>
-    <v>99</v>
-    <v>97.43</v>
-    <v>97.3</v>
-    <v>95.15</v>
-    <v>99.99</v>
-    <v>98.86</v>
-    <v>103.13</v>
-    <v>100.01</v>
-    <v>100</v>
-    <v>97.844999999999999</v>
-    <v>101.8</v>
-    <v>102.9</v>
-    <v>96.43</v>
-    <v>94.52</v>
-    <v>92.27</v>
-    <v>95.42</v>
-    <v>95.45</v>
-    <v>90.94</v>
-    <v>86.32</v>
-    <v>85.4</v>
-    <v>87.28</v>
-    <v>88.9</v>
-    <v>88.45</v>
-    <v>92.25</v>
-    <v>94.69</v>
-    <v>95.09</v>
-    <v>98.26</v>
-    <v>97.9</v>
-    <v>96.97</v>
-    <v>98.77</v>
-    <v>97.29</v>
-    <v>95.95</v>
-    <v>97.09</v>
-    <v>98.24</v>
-    <v>97.036299999999997</v>
-    <v>95.73</v>
-    <v>94.82</v>
-    <v>101.02</v>
-    <v>99.05</v>
-    <v>99.4</v>
-    <v>99.3</v>
-    <v>96.41</v>
-    <v>95.38</v>
-    <v>93.77</v>
-    <v>92.71</v>
-    <v>97.76</v>
-    <v>95.2</v>
-    <v>93.13</v>
-    <v>90.76</v>
-    <v>90.254999999999995</v>
-    <v>88.11</v>
-    <v>89.08</v>
-    <v>88.16</v>
-    <v>87.11</v>
-    <v>88.795000000000002</v>
-    <v>86.98</v>
-    <v>86.62</v>
-    <v>86.98</v>
-    <v>89.584999999999994</v>
-    <v>90.35</v>
-    <v>87.47</v>
-    <v>86.79</v>
-    <v>88.36</v>
-    <v>85.98</v>
-    <v>89.18</v>
-    <v>91.48</v>
-    <v>90.85</v>
-    <v>92.06</v>
-    <v>92.14</v>
-    <v>90.72</v>
-    <v>95.1</v>
-    <v>97.95</v>
-    <v>98.1</v>
-    <v>95.57</v>
-    <v>96.5</v>
-    <v>97.31</v>
-    <v>97.48</v>
-    <v>96.87</v>
-    <v>98.71</v>
-    <v>105.8</v>
-    <v>102.93</v>
-    <v>102.4</v>
-    <v>103.22</v>
-    <v>102.05</v>
-    <v>100</v>
-    <v>95.45</v>
-    <v>94.74</v>
-    <v>94.43</v>
-    <v>94.49</v>
-    <v>95.37</v>
-    <v>94.85</v>
-    <v>93</v>
-    <v>91.7</v>
-    <v>91.92</v>
-    <v>89.44</v>
-    <v>89.87</v>
-    <v>89.33</v>
-    <v>89.98</v>
-    <v>89.66</v>
-    <v>92.48</v>
-    <v>94.015000000000001</v>
-    <v>94.98</v>
-    <v>94.12</v>
-    <v>94.05</v>
-    <v>92.17</v>
-    <v>90.09</v>
-    <v>92.56</v>
-    <v>93.22</v>
-    <v>96.2</v>
-    <v>100.26</v>
-    <v>100.12</v>
-    <v>101.25</v>
-    <v>104.27</v>
-    <v>105.06</v>
-    <v>104.99</v>
-    <v>104.61499999999999</v>
-    <v>102.44</v>
-    <v>102.28</v>
-    <v>100.91</v>
-    <v>101.3</v>
-    <v>102.39</v>
-    <v>104.33</v>
-    <v>105.78</v>
-    <v>105.26</v>
-    <v>106.98</v>
-    <v>106.55</v>
-    <v>106.58</v>
-    <v>105.84</v>
-    <v>106.89</v>
-    <v>104.658</v>
-    <v>106.49</v>
-    <v>103.58</v>
-    <v>103.91</v>
-    <v>105.47</v>
-    <v>105.49</v>
-    <v>105.825</v>
-    <v>104.92</v>
-    <v>104.45</v>
-    <v>107.04</v>
-  </a>
-  <a r="1" c="250">
-    <v>286.9205</v>
-    <v>301.05700000000002</v>
-    <v>301.31029999999998</v>
-    <v>313.06689999999998</v>
-    <v>295.66370000000001</v>
-    <v>278.81389999999999</v>
-    <v>273.10059999999999</v>
-    <v>264.99740000000003</v>
-    <v>233.6643</v>
-    <v>257.82409999999999</v>
-    <v>255.7174</v>
-    <v>249.11750000000001</v>
-    <v>248.17089999999999</v>
-    <v>235.6643</v>
-    <v>237.99430000000001</v>
-    <v>218.33779999999999</v>
-    <v>217.84119999999999</v>
-    <v>207.9479</v>
-    <v>220.47110000000001</v>
-    <v>241.08090000000001</v>
-    <v>257.94409999999999</v>
-    <v>251.7175</v>
-    <v>244.1542</v>
-    <v>243.2226</v>
-    <v>244.3509</v>
-    <v>233.99770000000001</v>
-    <v>240.08430000000001</v>
-    <v>249.33750000000001</v>
-    <v>235.15430000000001</v>
-    <v>223.1644</v>
-    <v>218.28450000000001</v>
-    <v>220.9145</v>
-    <v>222.73439999999999</v>
-    <v>213.43119999999999</v>
-    <v>224.6011</v>
-    <v>234.501</v>
-    <v>237.90260000000001</v>
-    <v>237.46600000000001</v>
-    <v>249.36420000000001</v>
-    <v>244.48089999999999</v>
-    <v>230.49770000000001</v>
-    <v>224.5078</v>
-    <v>226.99770000000001</v>
-    <v>222.99780000000001</v>
-    <v>230.77770000000001</v>
-    <v>233.9177</v>
-    <v>242.33090000000001</v>
-    <v>252.10079999999999</v>
-    <v>236.8443</v>
-    <v>225.49770000000001</v>
-    <v>234.89429999999999</v>
-    <v>239.99760000000001</v>
-    <v>244.9342</v>
-    <v>244.99760000000001</v>
-    <v>246.7809</v>
-    <v>255.10409999999999</v>
-    <v>276.21719999999999</v>
-    <v>272.21390000000002</v>
-    <v>266.51069999999999</v>
-    <v>263.80739999999997</v>
-    <v>280.06389999999999</v>
-    <v>280.69720000000001</v>
-    <v>301.27199999999999</v>
-    <v>294.00040000000001</v>
-    <v>304.99700000000001</v>
-    <v>310.99689999999998</v>
-    <v>302.66699999999997</v>
-    <v>294.99709999999999</v>
-    <v>290.29039999999998</v>
-    <v>297.06369999999998</v>
-    <v>296.5104</v>
-    <v>289.41210000000001</v>
-    <v>301.78359999999998</v>
-    <v>311.66359999999997</v>
-    <v>303.39359999999999</v>
-    <v>305.99689999999998</v>
-    <v>298.99700000000001</v>
-    <v>291.91039999999998</v>
-    <v>291.4504</v>
-    <v>297.56040000000002</v>
-    <v>302.36</v>
-    <v>297.43</v>
-    <v>282.83</v>
-    <v>287.86500000000001</v>
-    <v>280.62</v>
-    <v>272.57499999999999</v>
-    <v>281.065</v>
-    <v>272.67500000000001</v>
-    <v>273.10000000000002</v>
-    <v>281.3</v>
-    <v>291.67</v>
-    <v>300.72000000000003</v>
-    <v>292.89999999999998</v>
-    <v>292.24</v>
-    <v>301.82499999999999</v>
-    <v>299.60500000000002</v>
-    <v>300.08999999999997</v>
-    <v>306.91000000000003</v>
-    <v>308.29000000000002</v>
-    <v>299.86</v>
-    <v>283.08999999999997</v>
-    <v>271.83</v>
-    <v>283.83999999999997</v>
-    <v>283.08</v>
-    <v>282.76</v>
-    <v>266.14499999999998</v>
-    <v>254.5</v>
-    <v>250.52</v>
-    <v>245.01</v>
-    <v>239.44</v>
-    <v>233.935</v>
-    <v>223.93</v>
-    <v>220.94499999999999</v>
-    <v>215.33</v>
-    <v>208.3</v>
-    <v>224.01</v>
-    <v>210.04</v>
-    <v>229.5</v>
-    <v>219.8</v>
-    <v>208.28</v>
-    <v>206.41499999999999</v>
-    <v>205.82</v>
-    <v>210.1</v>
-    <v>219.4</v>
-    <v>229.77</v>
-    <v>225.4</v>
-    <v>226.19</v>
-    <v>234.05</v>
-    <v>226.04</v>
-    <v>211.36</v>
-    <v>222.6</v>
-    <v>208.65</v>
-    <v>194.02</v>
-    <v>190.77500000000001</v>
-    <v>189.9</v>
-    <v>186</v>
-    <v>192.77</v>
-    <v>195.88</v>
-    <v>191.51</v>
-    <v>183.96</v>
-    <v>185.05</v>
-    <v>175.85</v>
-    <v>168.63</v>
-    <v>173.57</v>
-    <v>185.06</v>
-    <v>179.96</v>
-    <v>184.99</v>
-    <v>182.43</v>
-    <v>197.08</v>
-    <v>191.78</v>
-    <v>189.44</v>
-    <v>181.215</v>
-    <v>175.03</v>
-    <v>172.2</v>
-    <v>173.84</v>
-    <v>176.1</v>
-    <v>174.87</v>
-    <v>159.25</v>
-    <v>153.44</v>
-    <v>159.63499999999999</v>
-    <v>154</v>
-    <v>146.05000000000001</v>
-    <v>139.33500000000001</v>
-    <v>136</v>
-    <v>126.37</v>
-    <v>117.495</v>
-    <v>110.35</v>
-    <v>120.38500000000001</v>
-    <v>119.95</v>
-    <v>118.47</v>
-    <v>109.11</v>
-    <v>110.51</v>
-    <v>103</v>
-    <v>118.96</v>
-    <v>121.07</v>
-    <v>122.09</v>
-    <v>122.56</v>
-    <v>116.55</v>
-    <v>125.69499999999999</v>
-    <v>136.55500000000001</v>
-    <v>127.26</v>
-    <v>128.68</v>
-    <v>135.87</v>
-    <v>143</v>
-    <v>141.905</v>
-    <v>159.965</v>
-    <v>162.43</v>
-    <v>178.05</v>
-    <v>164.57</v>
-    <v>173.89</v>
-    <v>187.32499999999999</v>
-    <v>183.95</v>
-    <v>193.01</v>
-    <v>196.43</v>
-    <v>196.1</v>
-    <v>207.77500000000001</v>
-    <v>202.22499999999999</v>
-    <v>194.41499999999999</v>
-    <v>191.94</v>
-    <v>211.755</v>
-    <v>210.78</v>
-    <v>199.98500000000001</v>
-    <v>204.99</v>
-    <v>197.93</v>
-    <v>203.91</v>
-    <v>196.32499999999999</v>
-    <v>202.03</v>
-    <v>210.59</v>
-    <v>206.21</v>
-    <v>186.74</v>
-    <v>194.79499999999999</v>
-    <v>198.54</v>
-    <v>191.38</v>
-    <v>185.04</v>
-    <v>180.25</v>
-    <v>175.13</v>
-    <v>167.45500000000001</v>
-    <v>177.31</v>
-    <v>180.8</v>
-    <v>180.36500000000001</v>
-    <v>184.51499999999999</v>
-    <v>178.08</v>
-    <v>188.28</v>
-    <v>199.3</v>
-    <v>195.26</v>
-    <v>191.65</v>
-    <v>194.41499999999999</v>
-    <v>192</v>
-    <v>193.13</v>
-    <v>195.58</v>
-    <v>197.53</v>
-    <v>199.91</v>
-    <v>197.32</v>
-    <v>190.51499999999999</v>
-    <v>183.08</v>
-    <v>179.94</v>
-    <v>186.69</v>
-    <v>190.74</v>
-    <v>182.95500000000001</v>
-    <v>183.95</v>
-    <v>186.32</v>
-    <v>187.15</v>
-    <v>179.1</v>
-    <v>166.16499999999999</v>
-    <v>164.8</v>
-    <v>164.65</v>
-    <v>159.82</v>
-    <v>160.29</v>
-    <v>152.63999999999999</v>
-    <v>160.9</v>
-  </a>
-  <a r="1" c="250">
+  <a r="1" c="251">
     <v>124.43</v>
     <v>125.02</v>
     <v>122.54</v>
@@ -23579,8 +23667,9 @@
     <v>124.21</v>
     <v>124.44</v>
     <v>125.15</v>
+    <v>126.92</v>
   </a>
-  <a r="1" c="250">
+  <a r="1" c="251">
     <v>201.16499999999999</v>
     <v>210.45</v>
     <v>210.65</v>
@@ -23831,12 +23920,13 @@
     <v>212.5</v>
     <v>239.89</v>
     <v>239.01</v>
+    <v>238.61500000000001</v>
   </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2124">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2132">
   <rv s="0">
     <fb>30.912500000000001</fb>
     <v>0</v>
@@ -32295,115 +32385,147 @@
   </rv>
   <rv s="0">
     <fb>239.01</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>19.16</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>106.84</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>169.28</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>306.97000000000003</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>104.95</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>163.16999999999999</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>126.92</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>238.61500000000001</fb>
     <v>0</v>
   </rv>
   <rv s="1">
     <v>1</v>
     <v>gme</v>
     <v>Daily</v>
-    <v>44681</v>
-    <v>45046</v>
+    <v>44683</v>
+    <v>45048</v>
     <v>0</v>
     <v>1</v>
-    <v>638182368000000000,638184699783684851,0</v>
+    <v>638184960000000000,638186378293369382,0</v>
     <v>0</v>
     <v>a1tyxm</v>
     <v>XNYS:GME</v>
     <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>1</v>
+    <v>tsla</v>
+    <v>Daily</v>
+    <v>44683</v>
+    <v>45048</v>
+    <v>0</v>
+    <v>1</v>
+    <v>638184960000000000,638186378293371865,0</v>
+    <v>0</v>
+    <v>a24kar</v>
+    <v>XNAS:TSLA</v>
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>1</v>
+    <v>googl</v>
+    <v>Daily</v>
+    <v>44683</v>
+    <v>45048</v>
+    <v>0</v>
+    <v>1</v>
+    <v>638184960000000000,638186378293392159,0</v>
+    <v>0</v>
+    <v>a1u3rw</v>
+    <v>XNAS:GOOGL</v>
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>1</v>
+    <v>amc</v>
+    <v>Daily</v>
+    <v>44683</v>
+    <v>45048</v>
+    <v>0</v>
+    <v>1</v>
+    <v>638184960000000000,638186378293392359,0</v>
+    <v>0</v>
+    <v>a1ndlh</v>
+    <v>XNYS:AMC</v>
+    <v>4</v>
   </rv>
   <rv s="1">
     <v>1</v>
     <v>aapl</v>
     <v>Daily</v>
-    <v>44681</v>
-    <v>45046</v>
+    <v>44683</v>
+    <v>45048</v>
     <v>0</v>
     <v>1</v>
-    <v>638182368000000000,638184697616071409,0</v>
+    <v>638184960000000000,638186378293381661,0</v>
     <v>0</v>
     <v>a1mou2</v>
     <v>XNAS:AAPL</v>
-    <v>2</v>
-  </rv>
-  <rv s="1">
-    <v>1</v>
-    <v>amc</v>
-    <v>Daily</v>
-    <v>44681</v>
-    <v>45046</v>
-    <v>0</v>
-    <v>1</v>
-    <v>638182368000000000,638184696551524435,0</v>
-    <v>0</v>
-    <v>a1ndlh</v>
-    <v>XNYS:AMC</v>
-    <v>3</v>
+    <v>5</v>
   </rv>
   <rv s="1">
     <v>1</v>
     <v>amzn</v>
     <v>Daily</v>
-    <v>44681</v>
-    <v>45046</v>
+    <v>44683</v>
+    <v>45048</v>
     <v>0</v>
     <v>1</v>
-    <v>638182368000000000,638184698021349372,0</v>
+    <v>638184960000000000,638186378293381121,0</v>
     <v>0</v>
     <v>a1nhlh</v>
     <v>XNAS:AMZN</v>
-    <v>4</v>
+    <v>6</v>
   </rv>
   <rv s="1">
     <v>1</v>
     <v>msft</v>
     <v>Daily</v>
-    <v>44681</v>
-    <v>45046</v>
+    <v>44683</v>
+    <v>45048</v>
     <v>0</v>
     <v>1</v>
-    <v>638182368000000000,638184697792021723,0</v>
+    <v>638184960000000000,638186378293371350,0</v>
     <v>0</v>
     <v>a1xzim</v>
     <v>XNAS:MSFT</v>
-    <v>5</v>
-  </rv>
-  <rv s="1">
-    <v>1</v>
-    <v>googl</v>
-    <v>Daily</v>
-    <v>44681</v>
-    <v>45046</v>
-    <v>0</v>
-    <v>1</v>
-    <v>638182368000000000,638184698401848372,0</v>
-    <v>0</v>
-    <v>a1u3rw</v>
-    <v>XNAS:GOOGL</v>
-    <v>6</v>
-  </rv>
-  <rv s="1">
-    <v>1</v>
-    <v>tsla</v>
-    <v>Daily</v>
-    <v>44681</v>
-    <v>45046</v>
-    <v>0</v>
-    <v>1</v>
-    <v>638182368000000000,638184698740157060,0</v>
-    <v>0</v>
-    <v>a24kar</v>
-    <v>XNAS:TSLA</v>
     <v>7</v>
   </rv>
   <rv s="1">
     <v>1</v>
     <v>nke</v>
     <v>Daily</v>
-    <v>44681</v>
-    <v>45046</v>
+    <v>44683</v>
+    <v>45048</v>
     <v>0</v>
     <v>1</v>
-    <v>638182368000000000,638184699031723224,0</v>
+    <v>638184960000000000,638186378293379384,0</v>
     <v>0</v>
     <v>a1yjxm</v>
     <v>XNYS:NKE</v>
@@ -32413,11 +32535,11 @@
     <v>1</v>
     <v>meta</v>
     <v>Daily</v>
-    <v>44681</v>
-    <v>45046</v>
+    <v>44683</v>
+    <v>45048</v>
     <v>0</v>
     <v>1</v>
-    <v>638182368000000000,638184699363963193,0</v>
+    <v>638184960000000000,638186378293381661,0</v>
     <v>0</v>
     <v>a1slm7</v>
     <v>XNAS:META</v>
@@ -32793,9 +32915,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6340D733-F3BD-4663-AC81-15BC1D67B777}">
-  <dimension ref="A1:I251"/>
+  <dimension ref="A1:I252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -32807,39 +32931,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:A251" ca="1">_xlfn.STOCKHISTORY("gme", TODAY()-365, TODAY(), 0, 1, 2)</f>
+        <f t="array" aca="1" ref="A1:A252" ca="1">_xlfn.STOCKHISTORY("gme", TODAY()-365, TODAY(), 0, 1, 2)</f>
         <v>Open</v>
       </c>
       <c r="B1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B1:B251" ca="1">_xlfn.STOCKHISTORY("amc", TODAY()-365, TODAY(), 0, 1, 2)</f>
+        <f t="array" aca="1" ref="B1:B252" ca="1">_xlfn.STOCKHISTORY("amc", TODAY()-365, TODAY(), 0, 1, 2)</f>
         <v>Open</v>
       </c>
       <c r="C1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="C1:C251" ca="1">_xlfn.STOCKHISTORY("googl", TODAY()-365, TODAY(), 0, 1, 2)</f>
+        <f t="array" aca="1" ref="C1:C252" ca="1">_xlfn.STOCKHISTORY("googl", TODAY()-365, TODAY(), 0, 1, 2)</f>
         <v>Open</v>
       </c>
       <c r="D1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="D1:D251" ca="1">_xlfn.STOCKHISTORY("aapl", TODAY()-365, TODAY(), 0, 1, 2)</f>
+        <f t="array" aca="1" ref="D1:D252" ca="1">_xlfn.STOCKHISTORY("aapl", TODAY()-365, TODAY(), 0, 1, 2)</f>
         <v>Open</v>
       </c>
       <c r="E1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="E1:E251" ca="1">_xlfn.STOCKHISTORY("msft", TODAY()-365, TODAY(), 0, 1, 2)</f>
+        <f t="array" aca="1" ref="E1:E252" ca="1">_xlfn.STOCKHISTORY("msft", TODAY()-365, TODAY(), 0, 1, 2)</f>
         <v>Open</v>
       </c>
       <c r="F1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="F1:F251" ca="1">_xlfn.STOCKHISTORY("amzn", TODAY()-365, TODAY(), 0, 1, 2)</f>
+        <f t="array" aca="1" ref="F1:F252" ca="1">_xlfn.STOCKHISTORY("amzn", TODAY()-365, TODAY(), 0, 1, 2)</f>
         <v>Open</v>
       </c>
       <c r="G1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="G1:G251" ca="1">_xlfn.STOCKHISTORY("tsla", TODAY()-365, TODAY(), 0, 1, 2)</f>
+        <f t="array" aca="1" ref="G1:G252" ca="1">_xlfn.STOCKHISTORY("tsla", TODAY()-365, TODAY(), 0, 1, 2)</f>
         <v>Open</v>
       </c>
       <c r="H1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="H1:H251" ca="1">_xlfn.STOCKHISTORY("nke", TODAY()-365, TODAY(), 0, 1, 2)</f>
+        <f t="array" aca="1" ref="H1:H252" ca="1">_xlfn.STOCKHISTORY("nke", TODAY()-365, TODAY(), 0, 1, 2)</f>
         <v>Open</v>
       </c>
       <c r="I1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="I1:I251" ca="1">_xlfn.STOCKHISTORY("meta", TODAY()-365, TODAY(), 0, 1, 2)</f>
+        <f t="array" aca="1" ref="I1:I252" ca="1">_xlfn.STOCKHISTORY("meta", TODAY()-365, TODAY(), 0, 1, 2)</f>
         <v>Open</v>
       </c>
     </row>
@@ -42341,6 +42465,44 @@
       <c r="I251" vm="2115">
         <f ca="1"/>
         <v>239.01</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A252" vm="2116">
+        <f ca="1"/>
+        <v>19.16</v>
+      </c>
+      <c r="B252" vm="1566">
+        <f ca="1"/>
+        <v>5.53</v>
+      </c>
+      <c r="C252" vm="2117">
+        <f ca="1"/>
+        <v>106.84</v>
+      </c>
+      <c r="D252" vm="2118">
+        <f ca="1"/>
+        <v>169.28</v>
+      </c>
+      <c r="E252" vm="2119">
+        <f ca="1"/>
+        <v>306.97000000000003</v>
+      </c>
+      <c r="F252" vm="2120">
+        <f ca="1"/>
+        <v>104.95</v>
+      </c>
+      <c r="G252" vm="2121">
+        <f ca="1"/>
+        <v>163.16999999999999</v>
+      </c>
+      <c r="H252" vm="2122">
+        <f ca="1"/>
+        <v>126.92</v>
+      </c>
+      <c r="I252" vm="2123">
+        <f ca="1"/>
+        <v>238.61500000000001</v>
       </c>
     </row>
   </sheetData>
